--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_MACHICO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_MACHICO.xlsx
@@ -597,64 +597,64 @@
         <v>5942</v>
       </c>
       <c r="H2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" t="n">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="J2" t="n">
-        <v>2456</v>
+        <v>2497</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="M2" t="n">
         <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>28</v>
+      </c>
+      <c r="S2" t="n">
+        <v>270</v>
+      </c>
+      <c r="T2" t="n">
+        <v>452</v>
+      </c>
+      <c r="U2" t="n">
+        <v>38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3835</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3732</v>
+      </c>
+      <c r="Y2" t="n">
         <v>6</v>
       </c>
-      <c r="R2" t="n">
-        <v>40</v>
-      </c>
-      <c r="S2" t="n">
-        <v>249</v>
-      </c>
-      <c r="T2" t="n">
-        <v>378</v>
-      </c>
-      <c r="U2" t="n">
-        <v>33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3861</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3793</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
